--- a/medicine/Psychotrope/Max_Léglise/Max_Léglise.xlsx
+++ b/medicine/Psychotrope/Max_Léglise/Max_Léglise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Max_L%C3%A9glise</t>
+          <t>Max_Léglise</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Max Léglise, né le 6 juillet 1924 à Dijon et mort le 1er juillet 1996 à Bligny-lès-Beaune[1], est un œnologue français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max Léglise, né le 6 juillet 1924 à Dijon et mort le 1er juillet 1996 à Bligny-lès-Beaune, est un œnologue français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Max_L%C3%A9glise</t>
+          <t>Max_Léglise</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Max Léglise passe la plus grande partie de sa carrière à la Station œnologique de Bourgogne (INRA, Beaune), où il entre en 1948, et qu'il dirige de 1962 à 1984[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Max Léglise passe la plus grande partie de sa carrière à la Station œnologique de Bourgogne (INRA, Beaune), où il entre en 1948, et qu'il dirige de 1962 à 1984. 
 S'écartant de l'œnologie conventionnelle qu'on lui a enseignée et qu'il pratique depuis le début de sa carrière, il développe et applique de nouvelles méthodes biologiques à la vinification[Lesquelles ?].
 Il devient l'un des principaux enseignants de l'École d'agrobiologie de Beaujeu, au cœur du Beaujolais, où il termine sa carrière.
 Il est aussi l'un des initiateurs de l'analyse sensorielle dans la dégustation du vin ce qui lui vaut une large considération de la part de ses confrères œnologues, des sommeliers, restaurateurs et négociants en vin[réf. nécessaire]. 
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Max_L%C3%A9glise</t>
+          <t>Max_Léglise</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Principes de vinification, Beaunes, Comité interprofessionnel de la Côte-d'Or et de l'Yonne pour les vins d'appellation d'origine contrôlée de Bourgogne, 1969/1974, 36 p., 21cm, ill.
 Élevage et conservation du vin en cave, Beaunes, Comité interprofessionnel de la Côte-d'Or et de l'Yonne pour les vins d'appellation d'origine contrôlée de Bourgogne, 1974, 45 p., 21cm, ill.
